--- a/DGAV_SAMPLE_REGISTRATION_FILE_XYLELLA.xlsx
+++ b/DGAV_SAMPLE_REGISTRATION_FILE_XYLELLA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosa_borges\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD231BB7-3976-498E-B5E6-762498CB4BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF510B3-0E05-419D-9088-7BDEC42C9A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="2535" windowWidth="17790" windowHeight="12945" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="192">
   <si>
     <t>CLIENT_CODE</t>
   </si>
@@ -628,13 +628,16 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>\\Frfs310\lims-pt-crs$\PTAFL01\Templates\Report\SGSLABIP 1040_V1 - 13_08_2021\A uso\PTRep_Molecular v3_XF.rpt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -795,6 +798,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1249,7 +1258,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1312,6 +1321,7 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1685,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1710,7 +1720,7 @@
     <col min="17" max="17" width="12.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="71.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="104.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="34" style="13" customWidth="1"/>
     <col min="22" max="22" width="34" style="11" customWidth="1"/>
     <col min="23" max="30" width="34" style="13" customWidth="1"/>
@@ -1851,8 +1861,8 @@
         <v>26</v>
       </c>
       <c r="S2" s="21"/>
-      <c r="T2" s="1" t="s">
-        <v>27</v>
+      <c r="T2" s="25" t="s">
+        <v>191</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="22"/>
@@ -1900,7 +1910,7 @@
           <x14:formula1>
             <xm:f>Tabelas!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>T1:T1048576</xm:sqref>
+          <xm:sqref>T1:T2 T4:T1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5BC0AF5E-FE11-406A-920D-6120AF4BE6EB}">
           <x14:formula1>
@@ -2850,15 +2860,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="22e1ead8-3d3e-4a03-a4bd-f9730f4239ff" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="ecf586fa-040f-48fb-b73d-0c7dd78d9603" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ecf586fa-040f-48fb-b73d-0c7dd78d9603">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3108,21 +3115,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="22e1ead8-3d3e-4a03-a4bd-f9730f4239ff" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="ecf586fa-040f-48fb-b73d-0c7dd78d9603" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ecf586fa-040f-48fb-b73d-0c7dd78d9603">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89EDF176-0B0B-45F1-8C26-8BE0AE2C6A49}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA41E16F-B687-4E77-948E-6752A839BB3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="22e1ead8-3d3e-4a03-a4bd-f9730f4239ff"/>
-    <ds:schemaRef ds:uri="ecf586fa-040f-48fb-b73d-0c7dd78d9603"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3148,9 +3155,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA41E16F-B687-4E77-948E-6752A839BB3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89EDF176-0B0B-45F1-8C26-8BE0AE2C6A49}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="22e1ead8-3d3e-4a03-a4bd-f9730f4239ff"/>
+    <ds:schemaRef ds:uri="ecf586fa-040f-48fb-b73d-0c7dd78d9603"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DGAV_SAMPLE_REGISTRATION_FILE_XYLELLA.xlsx
+++ b/DGAV_SAMPLE_REGISTRATION_FILE_XYLELLA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosa_borges\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF510B3-0E05-419D-9088-7BDEC42C9A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1025F381-5E41-4E88-9688-EEA1C7707F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2535" windowWidth="17790" windowHeight="12945" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,7 +637,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -798,12 +798,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1258,7 +1252,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1321,7 +1315,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1695,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1861,7 +1854,7 @@
         <v>26</v>
       </c>
       <c r="S2" s="21"/>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="21" t="s">
         <v>191</v>
       </c>
       <c r="U2" s="8"/>
@@ -2860,12 +2853,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="22e1ead8-3d3e-4a03-a4bd-f9730f4239ff" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="ecf586fa-040f-48fb-b73d-0c7dd78d9603" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ecf586fa-040f-48fb-b73d-0c7dd78d9603">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3115,21 +3111,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="22e1ead8-3d3e-4a03-a4bd-f9730f4239ff" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="ecf586fa-040f-48fb-b73d-0c7dd78d9603" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ecf586fa-040f-48fb-b73d-0c7dd78d9603">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA41E16F-B687-4E77-948E-6752A839BB3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89EDF176-0B0B-45F1-8C26-8BE0AE2C6A49}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="22e1ead8-3d3e-4a03-a4bd-f9730f4239ff"/>
+    <ds:schemaRef ds:uri="ecf586fa-040f-48fb-b73d-0c7dd78d9603"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3155,12 +3151,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89EDF176-0B0B-45F1-8C26-8BE0AE2C6A49}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA41E16F-B687-4E77-948E-6752A839BB3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="22e1ead8-3d3e-4a03-a4bd-f9730f4239ff"/>
-    <ds:schemaRef ds:uri="ecf586fa-040f-48fb-b73d-0c7dd78d9603"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>